--- a/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>14</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>13</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>15</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>19</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>20</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>17</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>21</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>28</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>19</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>16</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>20</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>26</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>21</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>18</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>22</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>29</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>12</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>10</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>13</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>17</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>13</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>11</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>14</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>19</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>14</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>11</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>15</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>22</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>15</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>11</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>16</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>23</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>5</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>14</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>11</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>15</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>21</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v/>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>5</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>14</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>11</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>15</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>23</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v/>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>5</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>15</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>11</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>16</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>23</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v/>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>16</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>12</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>17</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>25</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v/>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>5</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>16</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>12</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>16</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>24</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v/>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>5</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>15</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>11</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>16</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>23</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v/>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>5</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>16</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>12</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>16</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>25</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v/>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>5</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>14</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>11</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>15</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>23</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v/>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
         <v>14</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
         <v>14</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
         <v>14</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>238</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>14</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
         <v>21</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>12</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>14</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
         <v>14</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
         <v>16</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-13 to 2024-12-29</t>
+          <t>2024-10-13 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>30 units</t>
+          <t>35 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -534,16 +534,16 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -660,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="n">
         <v>17</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,16 +694,16 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" t="n">
         <v>13</v>
       </c>
-      <c r="F7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14</v>
-      </c>
       <c r="H7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -743,7 +743,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -774,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
         <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>23</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -820,10 +820,10 @@
         <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -894,13 +894,13 @@
         <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
         <v>23</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -940,10 +940,10 @@
         <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -974,16 +974,16 @@
         <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1014,13 +1014,13 @@
         <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
         <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
         <v>23</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1054,16 +1054,16 @@
         <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1097,13 +1097,13 @@
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
         <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-13 to 2025-01-05</t>
+          <t>2024-10-13 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>35 units</t>
+          <t>41 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
         <v>13</v>
@@ -534,7 +534,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>9</v>
@@ -614,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>10</v>
@@ -734,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>11</v>
@@ -774,7 +774,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>11</v>
@@ -814,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
         <v>11</v>
@@ -854,7 +854,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>11</v>
@@ -894,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -974,7 +974,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>11</v>
@@ -1014,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>11</v>
@@ -1054,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>11</v>
@@ -1094,7 +1094,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>10</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
@@ -510,8 +510,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -550,8 +550,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -590,8 +590,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -630,8 +630,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -670,8 +670,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -710,8 +710,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -750,8 +750,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -790,8 +790,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -830,8 +830,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -870,8 +870,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -910,8 +910,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -950,8 +950,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -990,8 +990,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1030,8 +1030,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
@@ -1070,8 +1070,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1110,8 +1110,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
@@ -510,8 +510,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
+      <c r="J2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -550,8 +550,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
+      <c r="J3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -590,8 +590,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
+      <c r="J4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -630,8 +630,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
+      <c r="J5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -670,8 +670,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
+      <c r="J6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -710,8 +710,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
+      <c r="J7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -750,8 +750,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
+      <c r="J8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -790,8 +790,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
+      <c r="J9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -830,8 +830,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
+      <c r="J10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -870,8 +870,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
+      <c r="J11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -910,8 +910,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
+      <c r="J12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -950,8 +950,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
+      <c r="J13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -990,8 +990,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
+      <c r="J14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1030,8 +1030,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
+      <c r="J15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1070,8 +1070,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
+      <c r="J16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1110,8 +1110,8 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
+      <c r="J17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-13 to 2025-01-12</t>
+          <t>2024-10-13 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>41 units</t>
+          <t>53 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>53 units</t>
+          <t>46 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
+++ b/Sufficient data/forecast_summary_B0DJP9KLLD.xlsx
@@ -491,28 +491,26 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -531,28 +529,26 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -590,9 +586,7 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -611,7 +605,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -623,16 +617,14 @@
         <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -651,7 +643,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -660,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
         <v>17</v>
@@ -670,9 +662,7 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -710,9 +700,7 @@
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -731,7 +719,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>9</v>
@@ -743,16 +731,14 @@
         <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -771,7 +757,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
         <v>9</v>
@@ -783,16 +769,14 @@
         <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -811,28 +795,26 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
         <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -851,28 +833,26 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
         <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -891,28 +871,26 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -931,28 +909,26 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -971,28 +947,26 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1011,28 +985,26 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
         <v>8</v>
       </c>
-      <c r="E15" t="n">
-        <v>9</v>
-      </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
-      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1051,28 +1023,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1091,28 +1061,26 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>Z890 AERO G</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
-      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1153,7 +1121,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-13 to 2025-01-19</t>
+          <t>2024-10-13 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1193,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>46 units</t>
+          <t>49 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1205,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1217,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1229,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1241,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1253,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1265,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1277,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>
